--- a/评论/多线程评论.xlsx
+++ b/评论/多线程评论.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,156 +447,6 @@
           <t>time</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -624,152 +474,164 @@
           <t>08 Oct 2020 19:09</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Pinkplaid</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>AliExpressStandardShipping</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>15 Nov 2020 03:34</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Pinkplaid</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>AliExpressStandardShipping</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14 Oct 2020 23:35</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17 Nov 2020 07:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pinkplaid</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>AliExpressStandardShipping</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>17 Nov 2020 07:08</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>AliExpressStandardShipping</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>17 Nov 2020 07:08</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pinkplaid</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>SpecialLine-YW</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>03 Nov 2020 02:57</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pinkplaid</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>SpecialLine-YW</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>27 Sep 2020 04:42</t>
         </is>

--- a/评论/多线程评论.xlsx
+++ b/评论/多线程评论.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Pinkplaid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,14 +471,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08 Oct 2020 19:09</t>
+          <t>17 Nov 2020 07:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,24 +488,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AliExpressStandardShipping</t>
+          <t>SpecialLine-YW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15 Nov 2020 03:34</t>
+          <t>03 Nov 2020 02:57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,34 +515,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AliExpressStandardShipping</t>
+          <t>SpecialLine-YW</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 Oct 2020 23:35</t>
+          <t>27 Sep 2020 04:42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Pinkplaid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,14 +552,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17 Nov 2020 07:08</t>
+          <t>04 Dec 2020 13:48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,14 +579,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17 Nov 2020 07:08</t>
+          <t>01 Dec 2020 21:47</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -596,44 +596,206 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SpecialLine-YW</t>
+          <t>AliExpressStandardShipping</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>03 Nov 2020 02:57</t>
+          <t>27 Nov 2020 16:31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pinkplaid</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SpecialLine-YW</t>
+          <t>AliExpressStandardShipping</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27 Sep 2020 04:42</t>
+          <t>07 Dec 2020 03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08 Oct 2020 19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pinkplaid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14 Oct 2020 23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pinkplaid</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15 Nov 2020 03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pinkplaid</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07 Dec 2020 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17 Nov 2020 07:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pinkplaid</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AliExpressStandardShipping</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30 Nov 2020 10:35</t>
         </is>
       </c>
     </row>
